--- a/data/Random_Data.xlsx
+++ b/data/Random_Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\BachelorThesis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595389E-8ABA-4B30-8090-3E7D037AE79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4050" yWindow="1545" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -930,8 +936,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,13 +953,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -980,25 +1022,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1040,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,9 +1134,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1106,6 +1186,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1281,14 +1379,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,2514 +1500,2514 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>93</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>20</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
         <v>40</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>2</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="3">
         <v>5</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="3">
         <v>1</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="3">
         <v>1999</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
+    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>5091</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>81.67</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>78.7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>16</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="3">
         <v>2</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="3">
         <v>3</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>90</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>29</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
         <v>18</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
         <v>3</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="3">
         <v>2</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="3">
         <v>1</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1952</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>74</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>14</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>13</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
         <v>6</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>2</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="3">
         <v>3</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="3">
         <v>1</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="3">
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
+    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4253</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>20</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="3">
         <v>3</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <v>1</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
+    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>4870</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>80.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>82</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="3">
         <v>2</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
+    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>4425</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>62</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>44.5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="3">
         <v>2</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
+    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7892</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>77.25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>85.7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="3">
         <v>3</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1">
+    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8034</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>81</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>79</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>55</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>7</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>49</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>7</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="3">
         <v>8</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="3">
         <v>5</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="3">
         <v>2</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1">
+    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3302</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>61</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>8</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>1</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>13</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="3">
         <v>11</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="3">
         <v>6</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="3">
         <v>2</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="3">
         <v>1</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1">
+    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1707</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>76</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="3">
         <v>7</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1">
+    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>5586</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>34.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="3">
         <v>6</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1">
+    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>3381</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>60</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="3">
         <v>2</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1">
+    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>4064</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>42</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>6</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>2</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="3">
         <v>2</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="3">
         <v>4</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="3">
         <v>1</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1">
+    <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>3148</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>63</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>2</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="3">
         <v>11</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
         <v>11</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
         <v>2</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="3">
         <v>2</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="3">
         <v>1</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="3">
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1">
+    <row r="17" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>3435</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>60</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>6</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
         <v>11</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>6</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <v>1</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="3">
         <v>4</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="3">
         <v>1</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1">
+    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>4472</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>86</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>80.3</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>35</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>1</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>143</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <v>29</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="3">
         <v>10</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="3">
         <v>3</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="3">
         <v>3</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1">
+    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>8794</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>66</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>87</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>6</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>2</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>10</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
         <v>1</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="3">
         <v>2</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="3">
         <v>1</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="3">
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1">
+    <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>4311</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>70</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>7</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>11</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>20</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="3">
         <v>8</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="3">
         <v>27</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="3">
         <v>3</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="3">
         <v>1</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1">
+    <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>8098</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>73</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>88</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>7</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>1</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>2</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="3">
         <v>3</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="3">
         <v>1</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1">
+    <row r="22" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>4096</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>41</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>34</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>7</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="3">
         <v>2</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>4</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="3">
         <v>2</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="3">
         <v>1</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1">
+    <row r="23" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>93</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>61</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>240</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="3">
         <v>7</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="3">
         <v>5</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="3">
         <v>3</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="3">
         <v>1</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="1">
+    <row r="24" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>8523</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>64</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>69.5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>7</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="3">
         <v>14</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="3">
         <v>1</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="3">
         <v>3</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="3">
         <v>3</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="3">
         <v>3</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="3">
         <v>4</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="3">
         <v>2</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="1">
+    <row r="25" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>7424</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>85</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>19</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
         <v>2</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="3">
         <v>5</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="3">
         <v>1</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="1">
+    <row r="26" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>366</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>84</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>83</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="3">
         <v>4</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="1">
+    <row r="27" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>7076</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>70.33</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>72</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>4</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="3">
         <v>5</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>1</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="3">
         <v>3</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="3">
         <v>3</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1">
+    <row r="28" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>351</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>85</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>75</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>22</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
         <v>2</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
         <v>1</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Z28" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="3">
         <v>5</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="3">
         <v>1</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1">
+    <row r="29" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>5197</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>82</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>46</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="3">
         <v>4</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>11</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="3">
         <v>5</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="3">
         <v>2</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="3">
         <v>2</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="3">
         <v>2</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="3">
         <v>2003</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="1">
+    <row r="30" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>5874</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>72.5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>8</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="3">
         <v>9</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
         <v>2</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="3">
         <v>2</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y30" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="3">
         <v>4</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="3">
         <v>2</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="1">
+    <row r="31" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>4802</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>75</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>75.5</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>6</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="3">
         <v>4</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
         <v>2</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="3">
         <v>2</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Z31" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA31" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AB31" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="3">
         <v>7</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="3">
         <v>2</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" s="3">
         <v>2009</v>
       </c>
     </row>
